--- a/datalists/npr1_HD_g_list.xlsx
+++ b/datalists/npr1_HD_g_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1000" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>/data2/shared/data/twoColour/Results/recording51/recording51.1g100-350/recording51.1g_X1_skeletons.hdf5</t>
   </si>
@@ -58,18 +58,130 @@
   </si>
   <si>
     <t>*: phase frames estimated from average of other replicates with clear hand annotation</t>
+  </si>
+  <si>
+    <t>0-570</t>
+  </si>
+  <si>
+    <t>670-13180</t>
+  </si>
+  <si>
+    <t>13270-29140</t>
+  </si>
+  <si>
+    <t>29210-end</t>
+  </si>
+  <si>
+    <t>0-760</t>
+  </si>
+  <si>
+    <t>880-16370</t>
+  </si>
+  <si>
+    <t>16500-29200</t>
+  </si>
+  <si>
+    <t>29330-end</t>
+  </si>
+  <si>
+    <t>0-11370</t>
+  </si>
+  <si>
+    <t>11420-22370</t>
+  </si>
+  <si>
+    <t>22590-end</t>
+  </si>
+  <si>
+    <t>0-15900</t>
+  </si>
+  <si>
+    <t>16030-23940</t>
+  </si>
+  <si>
+    <t>24090-end</t>
+  </si>
+  <si>
+    <t>0-2120</t>
+  </si>
+  <si>
+    <t>2180-25010</t>
+  </si>
+  <si>
+    <t>25040-end</t>
+  </si>
+  <si>
+    <t>0-750</t>
+  </si>
+  <si>
+    <t>810-12580</t>
+  </si>
+  <si>
+    <t>12660-23540</t>
+  </si>
+  <si>
+    <t>23650-end</t>
+  </si>
+  <si>
+    <t>0-2510</t>
+  </si>
+  <si>
+    <t>2550-20870</t>
+  </si>
+  <si>
+    <t>20950-end</t>
+  </si>
+  <si>
+    <t>0-1250</t>
+  </si>
+  <si>
+    <t>1300-12570</t>
+  </si>
+  <si>
+    <t>12680-24520</t>
+  </si>
+  <si>
+    <t>24640-end</t>
+  </si>
+  <si>
+    <t>0-4310</t>
+  </si>
+  <si>
+    <t>4370-end</t>
+  </si>
+  <si>
+    <t>0-1170</t>
+  </si>
+  <si>
+    <t>1250-25570</t>
+  </si>
+  <si>
+    <t>25700-28260</t>
+  </si>
+  <si>
+    <t>28360-end</t>
+  </si>
+  <si>
+    <t>0-20680</t>
+  </si>
+  <si>
+    <t>20740-28400</t>
+  </si>
+  <si>
+    <t>28530-end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,6 +199,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,8 +239,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -458,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -469,7 +593,7 @@
     <col min="1" max="1" width="93.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +609,29 @@
       <c r="E1">
         <v>32400</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1">
+        <v>29140</v>
+      </c>
+      <c r="M1">
+        <v>29210</v>
+      </c>
+      <c r="N1">
+        <v>32399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -502,8 +647,20 @@
       <c r="E2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -519,8 +676,18 @@
       <c r="E3">
         <v>32400</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -536,8 +703,18 @@
       <c r="E4">
         <v>32400</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -553,8 +730,18 @@
       <c r="E5">
         <v>32400</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -570,8 +757,20 @@
       <c r="E6">
         <v>32400</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -587,8 +786,18 @@
       <c r="E7">
         <v>32400</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -607,8 +816,20 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -627,8 +848,16 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -644,8 +873,20 @@
       <c r="E10">
         <v>32400</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -664,8 +905,18 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="F14" t="s">
         <v>12</v>
       </c>

--- a/datalists/npr1_HD_g_list.xlsx
+++ b/datalists/npr1_HD_g_list.xlsx
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -593,7 +593,7 @@
     <col min="1" max="1" width="93.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -621,17 +621,8 @@
       <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1">
-        <v>29140</v>
-      </c>
-      <c r="M1">
-        <v>29210</v>
-      </c>
-      <c r="N1">
-        <v>32399</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -660,7 +651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -687,7 +678,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -714,7 +705,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -741,7 +732,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -770,7 +761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -797,7 +788,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -829,7 +820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -857,7 +848,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -886,7 +877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -916,7 +907,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:10">
       <c r="F14" t="s">
         <v>12</v>
       </c>

--- a/datalists/npr1_HD_g_list.xlsx
+++ b/datalists/npr1_HD_g_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1000" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>/data2/shared/data/twoColour/Results/recording51/recording51.1g100-350/recording51.1g_X1_skeletons.hdf5</t>
   </si>
@@ -58,18 +58,130 @@
   </si>
   <si>
     <t>*: phase frames estimated from average of other replicates with clear hand annotation</t>
+  </si>
+  <si>
+    <t>0-570</t>
+  </si>
+  <si>
+    <t>670-13180</t>
+  </si>
+  <si>
+    <t>13270-29140</t>
+  </si>
+  <si>
+    <t>29210-end</t>
+  </si>
+  <si>
+    <t>0-760</t>
+  </si>
+  <si>
+    <t>880-16370</t>
+  </si>
+  <si>
+    <t>16500-29200</t>
+  </si>
+  <si>
+    <t>29330-end</t>
+  </si>
+  <si>
+    <t>0-11370</t>
+  </si>
+  <si>
+    <t>11420-22370</t>
+  </si>
+  <si>
+    <t>22590-end</t>
+  </si>
+  <si>
+    <t>0-15900</t>
+  </si>
+  <si>
+    <t>16030-23940</t>
+  </si>
+  <si>
+    <t>24090-end</t>
+  </si>
+  <si>
+    <t>0-2120</t>
+  </si>
+  <si>
+    <t>2180-25010</t>
+  </si>
+  <si>
+    <t>25040-end</t>
+  </si>
+  <si>
+    <t>0-750</t>
+  </si>
+  <si>
+    <t>810-12580</t>
+  </si>
+  <si>
+    <t>12660-23540</t>
+  </si>
+  <si>
+    <t>23650-end</t>
+  </si>
+  <si>
+    <t>0-2510</t>
+  </si>
+  <si>
+    <t>2550-20870</t>
+  </si>
+  <si>
+    <t>20950-end</t>
+  </si>
+  <si>
+    <t>0-1250</t>
+  </si>
+  <si>
+    <t>1300-12570</t>
+  </si>
+  <si>
+    <t>12680-24520</t>
+  </si>
+  <si>
+    <t>24640-end</t>
+  </si>
+  <si>
+    <t>0-4310</t>
+  </si>
+  <si>
+    <t>4370-end</t>
+  </si>
+  <si>
+    <t>0-1170</t>
+  </si>
+  <si>
+    <t>1250-25570</t>
+  </si>
+  <si>
+    <t>25700-28260</t>
+  </si>
+  <si>
+    <t>28360-end</t>
+  </si>
+  <si>
+    <t>0-20680</t>
+  </si>
+  <si>
+    <t>20740-28400</t>
+  </si>
+  <si>
+    <t>28530-end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,6 +199,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,8 +239,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -458,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -469,7 +593,7 @@
     <col min="1" max="1" width="93.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +609,20 @@
       <c r="E1">
         <v>32400</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -502,8 +638,20 @@
       <c r="E2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -519,8 +667,18 @@
       <c r="E3">
         <v>32400</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -536,8 +694,18 @@
       <c r="E4">
         <v>32400</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -553,8 +721,18 @@
       <c r="E5">
         <v>32400</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -570,8 +748,20 @@
       <c r="E6">
         <v>32400</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -587,8 +777,18 @@
       <c r="E7">
         <v>32400</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -607,8 +807,20 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -627,8 +839,16 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -644,8 +864,20 @@
       <c r="E10">
         <v>32400</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -664,8 +896,18 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="F14" t="s">
         <v>12</v>
       </c>
